--- a/workspace_2/graph/table_data/lengths_table_data.xlsx
+++ b/workspace_2/graph/table_data/lengths_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -89,8 +89,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="true"/>
-    <col min="2" max="2" width="11.796875" customWidth="true"/>
-    <col min="3" max="3" width="12.796875" customWidth="true"/>
+    <col min="2" max="2" width="5.86328125" customWidth="true"/>
+    <col min="3" max="3" width="7.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,10 +109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2406445647690694</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C2" s="0">
-        <v>0.70710678118654891</v>
+        <v>0.70999999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -120,10 +120,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.10620349067813</v>
+        <v>3.1099999999999999</v>
       </c>
       <c r="C3" s="0">
-        <v>3.9999999999999991</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -131,10 +131,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>39.555680994058804</v>
+        <v>39.560000000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>40.127416997969519</v>
+        <v>40.130000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -142,10 +142,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>54.395438122374514</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="C5" s="0">
-        <v>54.859657966788141</v>
+        <v>54.859999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -153,10 +153,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>37.837323150749043</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="C6" s="0">
-        <v>37.842344298844097</v>
+        <v>37.840000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/workspace_2/graph/table_data/lengths_table_data.xlsx
+++ b/workspace_2/graph/table_data/lengths_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -109,10 +109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2400000000000002</v>
+        <v>39.560000000000002</v>
       </c>
       <c r="C2" s="0">
-        <v>0.70999999999999996</v>
+        <v>40.130000000000003</v>
       </c>
     </row>
     <row r="3">
@@ -120,10 +120,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.1099999999999999</v>
+        <v>39.420000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>4</v>
+        <v>39.710000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -131,10 +131,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>39.560000000000002</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>40.130000000000003</v>
+        <v>54.859999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -142,10 +142,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>54.399999999999999</v>
+        <v>42.420000000000002</v>
       </c>
       <c r="C5" s="0">
-        <v>54.859999999999999</v>
+        <v>42.780000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/workspace_2/graph/table_data/lengths_table_data.xlsx
+++ b/workspace_2/graph/table_data/lengths_table_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="448" uniqueCount="8">
   <si>
     <t>AlgName</t>
   </si>
@@ -88,9 +88,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true"/>
-    <col min="2" max="2" width="5.86328125" customWidth="true"/>
-    <col min="3" max="3" width="7.33203125" customWidth="true"/>
+    <col min="1" max="1" width="12.85546875" customWidth="true"/>
+    <col min="2" max="2" width="6.140625" customWidth="true"/>
+    <col min="3" max="3" width="7.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
